--- a/mediaList.xlsx
+++ b/mediaList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Component</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Expanded Aluminium</t>
+  </si>
+  <si>
+    <t>Pull Tab</t>
   </si>
 </sst>
 </file>
@@ -399,15 +405,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -423,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -431,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +470,23 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
